--- a/Csákai Bendegúz/OKTV/NB1_noi_kezilabda.xlsx
+++ b/Csákai Bendegúz/OKTV/NB1_noi_kezilabda.xlsx
@@ -1,51 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bendi\Desktop\GITHUB\fakt2025\Csákai Bendegúz\OKTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Csákai Bendegúz\Git\fakt2025\Csákai Bendegúz\OKTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26AC963F-D3DD-4CCC-A818-AC1556FB6B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF216E18-8F69-4C3F-A953-0317128B06B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{63E5EE3C-7F76-4E47-945F-ED357DF1D32F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63E5EE3C-7F76-4E47-945F-ED357DF1D32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mérkőzések" sheetId="1" r:id="rId1"/>
     <sheet name="Eredmények" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -255,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,20 +684,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FA01E3-0FC1-4B02-B27C-FD35D0FE7BEA}">
   <dimension ref="A1:K183"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -744,7 +732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -780,7 +768,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -816,7 +804,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -852,7 +840,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -888,7 +876,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -924,7 +912,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -960,7 +948,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -996,7 +984,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1020,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1056,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1104,7 +1092,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1128,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1164,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1200,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1236,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +1272,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1308,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1356,7 +1344,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1392,7 +1380,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1428,7 +1416,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1452,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1488,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +1524,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1572,7 +1560,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1608,7 +1596,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1644,7 +1632,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1668,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1716,7 +1704,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1776,7 @@
         <v>Döntetlen</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>Döntetlen</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1848,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -1896,7 +1884,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1920,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +1956,7 @@
         <v>Döntetlen</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2004,7 +1992,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="4" t="s">
         <v>27</v>
       </c>
@@ -2040,7 +2028,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
@@ -2076,7 +2064,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -2112,7 +2100,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="4" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2136,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="4" t="s">
         <v>27</v>
       </c>
@@ -2184,7 +2172,7 @@
         <v>Döntetlen</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2208,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
@@ -2292,7 +2280,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
@@ -2364,7 +2352,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
@@ -2400,7 +2388,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="4" t="s">
         <v>28</v>
       </c>
@@ -2436,7 +2424,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2460,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -2508,7 +2496,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
@@ -2532,7 +2520,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2544,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4" t="s">
         <v>29</v>
       </c>
@@ -2580,7 +2568,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2592,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
@@ -2628,7 +2616,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4" t="s">
         <v>29</v>
       </c>
@@ -2652,7 +2640,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
@@ -2676,7 +2664,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4" t="s">
         <v>30</v>
       </c>
@@ -2700,7 +2688,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
         <v>30</v>
       </c>
@@ -2724,7 +2712,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4" t="s">
         <v>30</v>
       </c>
@@ -2748,7 +2736,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2760,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -2796,7 +2784,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4" t="s">
         <v>30</v>
       </c>
@@ -2820,7 +2808,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
@@ -2844,7 +2832,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2856,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
@@ -2892,7 +2880,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4" t="s">
         <v>31</v>
       </c>
@@ -2916,7 +2904,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
@@ -2940,7 +2928,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4" t="s">
         <v>31</v>
       </c>
@@ -2964,7 +2952,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4" t="s">
         <v>31</v>
       </c>
@@ -2988,7 +2976,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4" t="s">
         <v>31</v>
       </c>
@@ -3012,7 +3000,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3036,7 @@
         <v>Hazai</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4" t="s">
         <v>32</v>
       </c>
@@ -3084,7 +3072,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4" t="s">
         <v>32</v>
       </c>
@@ -3108,7 +3096,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4" t="s">
         <v>32</v>
       </c>
@@ -3132,7 +3120,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4" t="s">
         <v>32</v>
       </c>
@@ -3156,7 +3144,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4" t="s">
         <v>32</v>
       </c>
@@ -3180,7 +3168,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4" t="s">
         <v>32</v>
       </c>
@@ -3204,7 +3192,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4" t="s">
         <v>33</v>
       </c>
@@ -3228,7 +3216,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4" t="s">
         <v>33</v>
       </c>
@@ -3252,7 +3240,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="4" t="s">
         <v>33</v>
       </c>
@@ -3276,7 +3264,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="4" t="s">
         <v>33</v>
       </c>
@@ -3300,7 +3288,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="4" t="s">
         <v>33</v>
       </c>
@@ -3324,7 +3312,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="4" t="s">
         <v>33</v>
       </c>
@@ -3348,7 +3336,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="4" t="s">
         <v>33</v>
       </c>
@@ -3384,7 +3372,7 @@
         <v>Vendég</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="4" t="s">
         <v>34</v>
       </c>
@@ -3408,7 +3396,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="4" t="s">
         <v>34</v>
       </c>
@@ -3432,7 +3420,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>34</v>
       </c>
@@ -3456,7 +3444,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="4" t="s">
         <v>34</v>
       </c>
@@ -3480,7 +3468,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="4" t="s">
         <v>34</v>
       </c>
@@ -3504,7 +3492,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="4" t="s">
         <v>34</v>
       </c>
@@ -3528,7 +3516,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="4" t="s">
         <v>34</v>
       </c>
@@ -3552,7 +3540,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="4" t="s">
         <v>35</v>
       </c>
@@ -3576,7 +3564,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="4" t="s">
         <v>35</v>
       </c>
@@ -3600,7 +3588,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="4" t="s">
         <v>35</v>
       </c>
@@ -3624,7 +3612,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="4" t="s">
         <v>35</v>
       </c>
@@ -3648,7 +3636,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="4" t="s">
         <v>35</v>
       </c>
@@ -3672,7 +3660,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="4" t="s">
         <v>35</v>
       </c>
@@ -3696,7 +3684,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="4" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3708,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="4" t="s">
         <v>36</v>
       </c>
@@ -3744,7 +3732,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="4" t="s">
         <v>36</v>
       </c>
@@ -3768,7 +3756,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="4" t="s">
         <v>36</v>
       </c>
@@ -3792,7 +3780,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="4" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3804,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="4" t="s">
         <v>36</v>
       </c>
@@ -3840,7 +3828,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="4" t="s">
         <v>36</v>
       </c>
@@ -3864,7 +3852,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="4" t="s">
         <v>36</v>
       </c>
@@ -3888,7 +3876,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="4" t="s">
         <v>37</v>
       </c>
@@ -3912,7 +3900,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="4" t="s">
         <v>37</v>
       </c>
@@ -3936,7 +3924,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="4" t="s">
         <v>37</v>
       </c>
@@ -3960,7 +3948,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="4" t="s">
         <v>37</v>
       </c>
@@ -3984,7 +3972,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="4" t="s">
         <v>37</v>
       </c>
@@ -4008,7 +3996,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="4" t="s">
         <v>37</v>
       </c>
@@ -4032,7 +4020,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="4" t="s">
         <v>37</v>
       </c>
@@ -4056,7 +4044,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -4080,7 +4068,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="4" t="s">
         <v>38</v>
       </c>
@@ -4104,7 +4092,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="4" t="s">
         <v>38</v>
       </c>
@@ -4128,7 +4116,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="4" t="s">
         <v>38</v>
       </c>
@@ -4152,7 +4140,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="4" t="s">
         <v>38</v>
       </c>
@@ -4176,7 +4164,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="4" t="s">
         <v>38</v>
       </c>
@@ -4200,7 +4188,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="4" t="s">
         <v>38</v>
       </c>
@@ -4224,7 +4212,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="4" t="s">
         <v>39</v>
       </c>
@@ -4248,7 +4236,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -4272,7 +4260,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="4" t="s">
         <v>39</v>
       </c>
@@ -4296,7 +4284,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="4" t="s">
         <v>39</v>
       </c>
@@ -4320,7 +4308,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="4" t="s">
         <v>39</v>
       </c>
@@ -4344,7 +4332,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="4" t="s">
         <v>39</v>
       </c>
@@ -4368,7 +4356,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="4" t="s">
         <v>39</v>
       </c>
@@ -4392,7 +4380,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="4" t="s">
         <v>40</v>
       </c>
@@ -4416,7 +4404,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="4" t="s">
         <v>40</v>
       </c>
@@ -4440,7 +4428,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -4464,7 +4452,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="4" t="s">
         <v>40</v>
       </c>
@@ -4488,7 +4476,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="4" t="s">
         <v>40</v>
       </c>
@@ -4512,7 +4500,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="4" t="s">
         <v>40</v>
       </c>
@@ -4536,7 +4524,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="4" t="s">
         <v>40</v>
       </c>
@@ -4560,7 +4548,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="4" t="s">
         <v>41</v>
       </c>
@@ -4584,7 +4572,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="4" t="s">
         <v>41</v>
       </c>
@@ -4608,7 +4596,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="4" t="s">
         <v>41</v>
       </c>
@@ -4632,7 +4620,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -4656,7 +4644,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="4" t="s">
         <v>41</v>
       </c>
@@ -4680,7 +4668,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="4" t="s">
         <v>41</v>
       </c>
@@ -4704,7 +4692,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="4" t="s">
         <v>41</v>
       </c>
@@ -4728,7 +4716,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="4" t="s">
         <v>42</v>
       </c>
@@ -4752,7 +4740,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="4" t="s">
         <v>42</v>
       </c>
@@ -4776,7 +4764,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="4" t="s">
         <v>42</v>
       </c>
@@ -4800,7 +4788,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="4" t="s">
         <v>42</v>
       </c>
@@ -4824,7 +4812,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4848,7 +4836,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="4" t="s">
         <v>42</v>
       </c>
@@ -4872,7 +4860,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="4" t="s">
         <v>42</v>
       </c>
@@ -4896,7 +4884,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="4" t="s">
         <v>43</v>
       </c>
@@ -4920,7 +4908,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="4" t="s">
         <v>43</v>
       </c>
@@ -4944,7 +4932,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="4" t="s">
         <v>43</v>
       </c>
@@ -4968,7 +4956,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="4" t="s">
         <v>43</v>
       </c>
@@ -4992,7 +4980,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="4" t="s">
         <v>43</v>
       </c>
@@ -5016,7 +5004,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -5040,7 +5028,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="4" t="s">
         <v>43</v>
       </c>
@@ -5064,7 +5052,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="4" t="s">
         <v>44</v>
       </c>
@@ -5088,7 +5076,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="4" t="s">
         <v>44</v>
       </c>
@@ -5112,7 +5100,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="4" t="s">
         <v>44</v>
       </c>
@@ -5136,7 +5124,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="4" t="s">
         <v>44</v>
       </c>
@@ -5160,7 +5148,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="4" t="s">
         <v>44</v>
       </c>
@@ -5184,7 +5172,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="4" t="s">
         <v>44</v>
       </c>
@@ -5208,7 +5196,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -5232,7 +5220,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="4" t="s">
         <v>45</v>
       </c>
@@ -5256,7 +5244,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="4" t="s">
         <v>45</v>
       </c>
@@ -5280,7 +5268,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="4" t="s">
         <v>45</v>
       </c>
@@ -5304,7 +5292,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="4" t="s">
         <v>45</v>
       </c>
@@ -5328,7 +5316,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="4" t="s">
         <v>45</v>
       </c>
@@ -5352,7 +5340,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="4" t="s">
         <v>45</v>
       </c>
@@ -5376,7 +5364,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="4" t="s">
         <v>45</v>
       </c>
@@ -5400,7 +5388,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="4" t="s">
         <v>46</v>
       </c>
@@ -5424,7 +5412,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" s="4" t="s">
         <v>46</v>
       </c>
@@ -5448,7 +5436,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="4" t="s">
         <v>46</v>
       </c>
@@ -5472,7 +5460,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="4" t="s">
         <v>46</v>
       </c>
@@ -5496,7 +5484,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="4" t="s">
         <v>46</v>
       </c>
@@ -5520,7 +5508,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="4" t="s">
         <v>46</v>
       </c>
@@ -5544,7 +5532,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="4" t="s">
         <v>46</v>
       </c>
@@ -5568,7 +5556,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="4" t="s">
         <v>47</v>
       </c>
@@ -5592,7 +5580,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" s="4" t="s">
         <v>47</v>
       </c>
@@ -5616,7 +5604,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="4" t="s">
         <v>47</v>
       </c>
@@ -5640,7 +5628,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="4" t="s">
         <v>47</v>
       </c>
@@ -5664,7 +5652,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" s="4" t="s">
         <v>47</v>
       </c>
@@ -5688,7 +5676,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" s="4" t="s">
         <v>47</v>
       </c>
@@ -5712,7 +5700,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15" thickBot="1">
       <c r="A183" s="9" t="s">
         <v>47</v>
       </c>
@@ -5746,21 +5734,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B20976-A3DC-499D-96CF-90BFB6C9D5B9}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
@@ -5782,7 +5770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>50</v>
@@ -5808,7 +5796,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5825,18 +5813,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>VLOOKUP(A3,Mérkőzések!C1:E183,3,FALSE)</f>
-        <v>23</v>
+        <f>SUMIFS(Mérkőzések!E:E,Mérkőzések!C:C,A3)+SUMIFS(Mérkőzések!F:F,Mérkőzések!D:D,A3)</f>
+        <v>197</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
         <f>F3-G3</f>
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5861,7 +5849,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -5886,7 +5874,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5911,7 +5899,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5936,7 +5924,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5961,7 +5949,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5986,7 +5974,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6011,7 +5999,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6036,7 +6024,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -6061,7 +6049,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6086,7 +6074,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6111,7 +6099,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6136,7 +6124,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6161,7 +6149,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
